--- a/Data Files/SalesforceHFXImpersonation.xlsx
+++ b/Data Files/SalesforceHFXImpersonation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Katalon Studio\My First Web UI Project\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Katalon Studio\My First Web UI Project\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02674428-0172-4654-ACAD-085A6376E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36142A03-5E60-45A5-84F6-4ACC47F96795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{097FBD93-E815-498C-9C96-A057B0A80F61}"/>
+    <workbookView xWindow="26328" yWindow="1224" windowWidth="17280" windowHeight="8880" xr2:uid="{097FBD93-E815-498C-9C96-A057B0A80F61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7431AE4E-F569-4B92-B105-54C2B6D11B61}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
